--- a/biology/Zoologie/Diplodus_intermedius/Diplodus_intermedius.xlsx
+++ b/biology/Zoologie/Diplodus_intermedius/Diplodus_intermedius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplodus intermedius est une espèce éteinte de poissons de la famille des sparidés.  Les espèces actuelles correspondantes ou affines sont Diplodus cervinus et le Sar commun.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces restes fossilisés sont présents dans les faluns de Bretagne[1] et de Touraine. Les dents sont noires, hautes, effilées, sans symétrie (sauf pour les dents symphisaires), ténat recourbées vers le côté lingual, et présentant en vue linguale, un bourrelet caractéristique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces restes fossilisés sont présents dans les faluns de Bretagne et de Touraine. Les dents sont noires, hautes, effilées, sans symétrie (sauf pour les dents symphisaires), ténat recourbées vers le côté lingual, et présentant en vue linguale, un bourrelet caractéristique.
 </t>
         </is>
       </c>
